--- a/Example/CPT_Table_Ranges _WithHeaders.xlsx
+++ b/Example/CPT_Table_Ranges _WithHeaders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="10290"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="17235" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="CPT_Table_Ranges _WithHeaders" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>.5-.9</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Parents</t>
+  </si>
+  <si>
+    <t>.3-.7</t>
   </si>
 </sst>
 </file>
@@ -893,15 +896,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
@@ -909,8 +912,15 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>0</v>
       </c>
@@ -926,8 +936,23 @@
       <c r="G2">
         <v>4</v>
       </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -949,8 +974,29 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -969,8 +1015,26 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -989,8 +1053,26 @@
       <c r="G5" t="s">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1009,8 +1091,26 @@
       <c r="G6" t="s">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1029,10 +1129,29 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
